--- a/PBLSEM4/public/template_prodi.xlsx
+++ b/PBLSEM4/public/template_prodi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Polinema\STUDI KAMPUS\SEMESTER 4\WEB\PBLSEM4\PBLSEM4\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C3D68E1-1308-444B-ACF1-B381B480D64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8388798A-4743-4859-BCE9-0FD61934B341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0FFB02CF-B584-4123-81CE-0D61E0E19E8A}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="16200" windowHeight="9307" xr2:uid="{0FFB02CF-B584-4123-81CE-0D61E0E19E8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,16 +55,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -94,7 +86,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,17 +404,17 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,7 +425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>234567</v>
       </c>
@@ -444,7 +436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>234568</v>
       </c>
